--- a/DataRepo/data/tests/small_obob/study.xlsx
+++ b/DataRepo/data/tests/small_obob/study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD87B901-75C2-2649-98D4-AEA51D6EA13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD1DF33-510A-E048-BEF6-944A3419D1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="7040" windowWidth="29900" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="7040" windowWidth="29900" windowHeight="12800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Animals" sheetId="1" r:id="rId1"/>
@@ -408,10 +408,18 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>Unique identifier for the animal (mouse) the sample was collected from. MUST match the Animal ID in the Animal Table.
-	-Lance Parsons</t>
+          <t xml:space="preserve">Unique identifier for the animal (mouse) the sample was collected from. MUST match the Animal ID in the Animal Table.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Lance Parsons</t>
         </r>
       </text>
     </comment>
@@ -548,9 +556,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="117">
   <si>
-    <t>Animal ID</t>
-  </si>
-  <si>
     <t>Infusate</t>
   </si>
   <si>
@@ -561,9 +566,6 @@
   </si>
   <si>
     <t>Animal Treatment</t>
-  </si>
-  <si>
-    <t>Sample Name</t>
   </si>
   <si>
     <t>Date Collected</t>
@@ -940,6 +942,12 @@
   </si>
   <si>
     <t>lysine-[13C6][23.2]</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Animal</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1340,7 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1351,28 +1359,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
@@ -1380,25 +1388,25 @@
         <v>971</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2">
         <v>26.3</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E2">
         <v>0.11</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" ht="13"/>
@@ -2331,7 +2339,7 @@
   </sheetPr>
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -2357,22 +2365,22 @@
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -2391,16 +2399,16 @@
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1">
       <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" t="s">
-        <v>92</v>
-      </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>150</v>
@@ -2421,16 +2429,16 @@
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>150</v>
@@ -2451,16 +2459,16 @@
     </row>
     <row r="4" spans="1:30" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>150</v>
@@ -2481,16 +2489,16 @@
     </row>
     <row r="5" spans="1:30" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>150</v>
@@ -2511,16 +2519,16 @@
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>150</v>
@@ -2541,16 +2549,16 @@
     </row>
     <row r="7" spans="1:30" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>150</v>
@@ -2571,16 +2579,16 @@
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>150</v>
@@ -2601,16 +2609,16 @@
     </row>
     <row r="9" spans="1:30" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>150</v>
@@ -2631,16 +2639,16 @@
     </row>
     <row r="10" spans="1:30" ht="15.75" customHeight="1">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>150</v>
@@ -2661,16 +2669,16 @@
     </row>
     <row r="11" spans="1:30" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>150</v>
@@ -2691,16 +2699,16 @@
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>150</v>
@@ -2721,16 +2729,16 @@
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>150</v>
@@ -2751,16 +2759,16 @@
     </row>
     <row r="14" spans="1:30" ht="15.75" customHeight="1">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>150</v>
@@ -2781,16 +2789,16 @@
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15">
         <v>150</v>
@@ -2811,16 +2819,16 @@
     </row>
     <row r="16" spans="1:30" ht="15.75" customHeight="1">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16">
         <v>150</v>
@@ -2841,16 +2849,16 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>150</v>
@@ -20615,10 +20623,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -20647,18 +20655,18 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -20689,10 +20697,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -20720,295 +20728,295 @@
     </row>
     <row r="2" spans="1:26" ht="15">
       <c r="A2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:26" ht="15">
+      <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:26" ht="15">
-      <c r="A3" s="9" t="s">
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:26" ht="15">
+      <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:26" ht="15">
-      <c r="A4" s="9" t="s">
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:26" ht="15">
+      <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:26" ht="15">
-      <c r="A5" s="9" t="s">
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:26" ht="15">
+      <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:26" ht="15">
-      <c r="A6" s="13" t="s">
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:26" ht="15">
+      <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:26" ht="15">
-      <c r="A7" s="9" t="s">
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:26" ht="15">
+      <c r="A8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:26" ht="15">
+      <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:26" ht="15">
-      <c r="A8" s="9" t="s">
+      <c r="B9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:26" ht="15">
+      <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:26" ht="15">
-      <c r="A9" s="9" t="s">
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:26" ht="15">
+      <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:26" ht="15">
-      <c r="A10" s="9" t="s">
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:26" ht="15">
+      <c r="A12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:26" ht="15">
-      <c r="A11" s="9" t="s">
+      <c r="B12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:26" ht="15">
-      <c r="A12" s="9" t="s">
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:26" ht="15">
+      <c r="A13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:26" ht="15">
-      <c r="A13" s="9" t="s">
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:26" ht="15">
+      <c r="A14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:26" ht="15">
-      <c r="A14" s="9" t="s">
+      <c r="B15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="9" t="s">
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B16" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A17" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="9" t="s">
+      <c r="B17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A17" s="13" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B18" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="13" t="s">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B19" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A20" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A19" s="9" t="s">
+      <c r="B20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A20" s="9" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B21" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A21" s="9" t="s">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A22" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B22" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A22" s="9" t="s">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A23" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B23" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A23" s="9" t="s">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A24" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B24" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A25" s="9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A24" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A25" s="9" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A26" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B26" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A26" s="9" t="s">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A27" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B27" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A28" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="9" t="s">
+      <c r="B28" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A28" s="9" t="s">
+      <c r="B29" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A29" s="9" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A30" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B30" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A30" s="9" t="s">
+    <row r="31" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A31" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A31" s="9" t="s">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A32" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B32" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A32" s="9" t="s">
+    <row r="33" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A33" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B33" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A34" s="9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A33" s="9" t="s">
+      <c r="B34" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A35" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A34" s="9" t="s">
+      <c r="B35" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A35" s="9" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B36" s="9" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -21030,7 +21038,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18">
       <c r="A1" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -21060,76 +21068,76 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A4" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A5" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="16" t="s">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A6" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A5" s="16" t="s">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A8" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A6" s="16" t="s">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A9" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="4" t="s">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A10" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="4" t="s">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A12" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="16" t="s">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A14" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="4" t="s">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A15" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:26" ht="18">
       <c r="A17" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -21159,22 +21167,22 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
